--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdnf-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdnf-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Gdnf</t>
+  </si>
+  <si>
+    <t>Ret</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Gdnf</t>
-  </si>
-  <si>
-    <t>Ret</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1170883333333333</v>
+        <v>0.509729</v>
       </c>
       <c r="H2">
-        <v>0.351265</v>
+        <v>1.529187</v>
       </c>
       <c r="I2">
-        <v>0.09352043543917719</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.09352043543917718</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.273058</v>
+        <v>4.132875333333334</v>
       </c>
       <c r="N2">
-        <v>3.819174</v>
+        <v>12.398626</v>
       </c>
       <c r="O2">
-        <v>0.1826308343983922</v>
+        <v>0.391502049440379</v>
       </c>
       <c r="P2">
-        <v>0.1826308343983922</v>
+        <v>0.3915020494403789</v>
       </c>
       <c r="Q2">
-        <v>0.1490602394566667</v>
+        <v>2.106646410784667</v>
       </c>
       <c r="R2">
-        <v>1.34154215511</v>
+        <v>18.959817697062</v>
       </c>
       <c r="S2">
-        <v>0.0170797151575579</v>
+        <v>0.391502049440379</v>
       </c>
       <c r="T2">
-        <v>0.0170797151575579</v>
+        <v>0.3915020494403789</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1170883333333333</v>
+        <v>0.509729</v>
       </c>
       <c r="H3">
-        <v>0.351265</v>
+        <v>1.529187</v>
       </c>
       <c r="I3">
-        <v>0.09352043543917719</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.09352043543917718</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>15.282439</v>
       </c>
       <c r="O3">
-        <v>0.7307979647464429</v>
+        <v>0.4825620346115429</v>
       </c>
       <c r="P3">
-        <v>0.7307979647464428</v>
+        <v>0.4825620346115428</v>
       </c>
       <c r="Q3">
-        <v>0.5964651039261112</v>
+        <v>2.596634116343667</v>
       </c>
       <c r="R3">
-        <v>5.368185935335</v>
+        <v>23.369707047093</v>
       </c>
       <c r="S3">
-        <v>0.0683445438811518</v>
+        <v>0.4825620346115429</v>
       </c>
       <c r="T3">
-        <v>0.06834454388115178</v>
+        <v>0.4825620346115428</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1170883333333333</v>
+        <v>0.509729</v>
       </c>
       <c r="H4">
-        <v>0.351265</v>
+        <v>1.529187</v>
       </c>
       <c r="I4">
-        <v>0.09352043543917719</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.09352043543917718</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,338 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5906476666666666</v>
+        <v>1.329437333333333</v>
       </c>
       <c r="N4">
-        <v>1.771943</v>
+        <v>3.988312</v>
       </c>
       <c r="O4">
-        <v>0.08473335558850953</v>
+        <v>0.1259359159480782</v>
       </c>
       <c r="P4">
-        <v>0.08473335558850953</v>
+        <v>0.1259359159480782</v>
       </c>
       <c r="Q4">
-        <v>0.06915795087722221</v>
+        <v>0.6776527624826667</v>
       </c>
       <c r="R4">
-        <v>0.622421557895</v>
+        <v>6.098874862343999</v>
       </c>
       <c r="S4">
-        <v>0.00792430031086005</v>
+        <v>0.1259359159480782</v>
       </c>
       <c r="T4">
-        <v>0.007924300310860048</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1170883333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.351265</v>
-      </c>
-      <c r="I5">
-        <v>0.09352043543917719</v>
-      </c>
-      <c r="J5">
-        <v>0.09352043543917718</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.012811</v>
-      </c>
-      <c r="N5">
-        <v>0.03843299999999999</v>
-      </c>
-      <c r="O5">
-        <v>0.00183784526665541</v>
-      </c>
-      <c r="P5">
-        <v>0.00183784526665541</v>
-      </c>
-      <c r="Q5">
-        <v>0.001500018638333333</v>
-      </c>
-      <c r="R5">
-        <v>0.013500167745</v>
-      </c>
-      <c r="S5">
-        <v>0.0001718760896074446</v>
-      </c>
-      <c r="T5">
-        <v>0.0001718760896074446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.134919666666667</v>
-      </c>
-      <c r="H6">
-        <v>3.404758999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.9064795645608229</v>
-      </c>
-      <c r="J6">
-        <v>0.9064795645608228</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.273058</v>
-      </c>
-      <c r="N6">
-        <v>3.819174</v>
-      </c>
-      <c r="O6">
-        <v>0.1826308343983922</v>
-      </c>
-      <c r="P6">
-        <v>0.1826308343983922</v>
-      </c>
-      <c r="Q6">
-        <v>1.444818561007333</v>
-      </c>
-      <c r="R6">
-        <v>13.003367049066</v>
-      </c>
-      <c r="S6">
-        <v>0.1655511192408343</v>
-      </c>
-      <c r="T6">
-        <v>0.1655511192408343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.134919666666667</v>
-      </c>
-      <c r="H7">
-        <v>3.404758999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.9064795645608229</v>
-      </c>
-      <c r="J7">
-        <v>0.9064795645608228</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>5.094146333333334</v>
-      </c>
-      <c r="N7">
-        <v>15.282439</v>
-      </c>
-      <c r="O7">
-        <v>0.7307979647464429</v>
-      </c>
-      <c r="P7">
-        <v>0.7307979647464428</v>
-      </c>
-      <c r="Q7">
-        <v>5.781446858577889</v>
-      </c>
-      <c r="R7">
-        <v>52.03302172720099</v>
-      </c>
-      <c r="S7">
-        <v>0.6624534208652911</v>
-      </c>
-      <c r="T7">
-        <v>0.6624534208652909</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.134919666666667</v>
-      </c>
-      <c r="H8">
-        <v>3.404758999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.9064795645608229</v>
-      </c>
-      <c r="J8">
-        <v>0.9064795645608228</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.5906476666666666</v>
-      </c>
-      <c r="N8">
-        <v>1.771943</v>
-      </c>
-      <c r="O8">
-        <v>0.08473335558850953</v>
-      </c>
-      <c r="P8">
-        <v>0.08473335558850953</v>
-      </c>
-      <c r="Q8">
-        <v>0.6703376529707776</v>
-      </c>
-      <c r="R8">
-        <v>6.033038876736998</v>
-      </c>
-      <c r="S8">
-        <v>0.07680905527764949</v>
-      </c>
-      <c r="T8">
-        <v>0.07680905527764947</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.134919666666667</v>
-      </c>
-      <c r="H9">
-        <v>3.404758999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.9064795645608229</v>
-      </c>
-      <c r="J9">
-        <v>0.9064795645608228</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.012811</v>
-      </c>
-      <c r="N9">
-        <v>0.03843299999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.00183784526665541</v>
-      </c>
-      <c r="P9">
-        <v>0.00183784526665541</v>
-      </c>
-      <c r="Q9">
-        <v>0.01453945584966666</v>
-      </c>
-      <c r="R9">
-        <v>0.130855102647</v>
-      </c>
-      <c r="S9">
-        <v>0.001665969177047965</v>
-      </c>
-      <c r="T9">
-        <v>0.001665969177047965</v>
+        <v>0.1259359159480782</v>
       </c>
     </row>
   </sheetData>
